--- a/biology/Zoologie/Apyrrothrix_arizonae/Apyrrothrix_arizonae.xlsx
+++ b/biology/Zoologie/Apyrrothrix_arizonae/Apyrrothrix_arizonae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apyrrothrix arizonae est une espèce de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini.
 </t>
@@ -511,13 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apyrrothrix arizonae a été nommé par Frederick DuCane Godman et Osbert Salvin en 1893 sous le nom initial de Pyrrhopyge arizonae[1].
-Taxinomie
-Dans certaines publications il est placé comme une sous-espèce d'Apyrrothrix araxes, Apyrrothrix araxes arizonae[1],[2].
-Nom vernaculaire
-Apyrrothrix arizonae se nomme « Arizona » Araxes Skipper en anglais[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apyrrothrix arizonae a été nommé par Frederick DuCane Godman et Osbert Salvin en 1893 sous le nom initial de Pyrrhopyge arizonae.
 </t>
         </is>
       </c>
@@ -543,14 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apyrrothrix arizonae est un papillon au corps trapu marron doré d'une envergure de 45 mm à 57 mm [2]. 
-Les ailes sont sur le dessus de couleur marron doré avec une frange blanche et de petites taches blanches aux ailes antérieures.
-Le revers est semblable, marron avec une partie plus claire, plus jaune orangé vers la base.
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans certaines publications il est placé comme une sous-espèce d'Apyrrothrix araxes, Apyrrothrix araxes arizonae,.
 </t>
         </is>
       </c>
@@ -576,14 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apyrrothrix arizonae vole en plusieurs générations entre juin et novembre[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Quercus, Quercus arizonica, Quercus emoryi et Quercus oblongifolia[1].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apyrrothrix arizonae se nomme « Arizona » Araxes Skipper en anglais.
 </t>
         </is>
       </c>
@@ -609,18 +627,195 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apyrrothrix arizonae est un papillon au corps trapu marron doré d'une envergure de 45 mm à 57 mm . 
+Les ailes sont sur le dessus de couleur marron doré avec une frange blanche et de petites taches blanches aux ailes antérieures.
+Le revers est semblable, marron avec une partie plus claire, plus jaune orangé vers la base.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Apyrrothrix_arizonae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apyrrothrix_arizonae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apyrrothrix arizonae vole en plusieurs générations entre juin et novembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Apyrrothrix_arizonae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apyrrothrix_arizonae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Quercus, Quercus arizonica, Quercus emoryi et Quercus oblongifolia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Apyrrothrix_arizonae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apyrrothrix_arizonae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apyrrothrix arizonae est présent dans le Sud des États-Unis (Texas, Nouveau-Mexique et Arizona) et au Mexique[1],[2].
-Biotope
-Apyrrothrix arizonae réside en bords de routes, lisières et allées des forêts[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apyrrothrix arizonae est présent dans le Sud des États-Unis (Texas, Nouveau-Mexique et Arizona) et au Mexique,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Apyrrothrix_arizonae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apyrrothrix_arizonae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apyrrothrix arizonae réside en bords de routes, lisières et allées des forêts.
 Sur les autres projets Wikimedia :
 Apyrrothrix arizonae, sur Wikimedia CommonsApyrrothrix arizonae, sur Wikispecies
-Protection
-Pas de statut de protection particulier[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Apyrrothrix_arizonae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apyrrothrix_arizonae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
